--- a/data/excel/Register_Supplier.xlsx
+++ b/data/excel/Register_Supplier.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kumar.gaurav\git\V12StagingB2C\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F314A5A4-698D-4B9C-B74F-27314EC8C467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BE7EBB-6E12-4895-956C-88EFB1E666B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="20490" windowHeight="8850" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="135">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -90,9 +91,6 @@
     <t>Piyush_ql</t>
   </si>
   <si>
-    <t>Password@@12</t>
-  </si>
-  <si>
     <t>JMD Megapolis</t>
   </si>
   <si>
@@ -147,9 +145,6 @@
     <t>ProductType</t>
   </si>
   <si>
-    <t>Bus,Transfer,Hotel,Flight,Package,Insurance,Car</t>
-  </si>
-  <si>
     <t>Regular Voucher to be generated</t>
   </si>
   <si>
@@ -385,6 +380,69 @@
   </si>
   <si>
     <t>TS160</t>
+  </si>
+  <si>
+    <t>test126@quadlabs.com</t>
+  </si>
+  <si>
+    <t>test127@quadlabs.com</t>
+  </si>
+  <si>
+    <t>test128@quadlabs.com</t>
+  </si>
+  <si>
+    <t>test129@quadlabs.com</t>
+  </si>
+  <si>
+    <t>TS175</t>
+  </si>
+  <si>
+    <t>TS176</t>
+  </si>
+  <si>
+    <t>TS177</t>
+  </si>
+  <si>
+    <t>TS178</t>
+  </si>
+  <si>
+    <t>TS179</t>
+  </si>
+  <si>
+    <t>AAA Supplier114</t>
+  </si>
+  <si>
+    <t>BBB Supplier115</t>
+  </si>
+  <si>
+    <t>Atul Supplier118</t>
+  </si>
+  <si>
+    <t>Akasha Supplier119</t>
+  </si>
+  <si>
+    <t>Ankur Supplier121</t>
+  </si>
+  <si>
+    <t>test130@quadlabs.com</t>
+  </si>
+  <si>
+    <t>9@6C6535C</t>
+  </si>
+  <si>
+    <t>Ankur@123456</t>
+  </si>
+  <si>
+    <t>ankur_ql</t>
+  </si>
+  <si>
+    <t>TS162</t>
+  </si>
+  <si>
+    <t>AABBC Supplier113</t>
+  </si>
+  <si>
+    <t>test109@quadlabs.com</t>
   </si>
 </sst>
 </file>
@@ -485,7 +543,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -506,6 +564,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -789,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,10 +901,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>7</v>
@@ -857,10 +916,10 @@
         <v>9</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>10</v>
@@ -869,48 +928,48 @@
         <v>11</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="U1" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="V1" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Y1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="AA1" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>
@@ -925,78 +984,78 @@
         <v>16</v>
       </c>
       <c r="G2" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="L2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="N2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="P2">
         <v>122018</v>
       </c>
       <c r="Q2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R2">
         <v>8888888801</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="U2">
         <v>800000000012345</v>
       </c>
       <c r="V2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="W2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X2">
         <v>1</v>
       </c>
       <c r="Y2" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z2" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AA2" s="10">
         <v>1</v>
       </c>
       <c r="AB2" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>13</v>
@@ -1011,78 +1070,78 @@
         <v>16</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="L3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="N3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="P3">
         <v>122019</v>
       </c>
       <c r="Q3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R3">
         <v>8888888802</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="T3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="U3">
         <v>800000000012346</v>
       </c>
       <c r="V3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="X3">
         <v>1</v>
       </c>
       <c r="Y3" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Z3" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AA3" s="10">
         <v>2</v>
       </c>
       <c r="AB3" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>13</v>
@@ -1097,78 +1156,78 @@
         <v>16</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="L4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="N4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="P4">
         <v>122020</v>
       </c>
       <c r="Q4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R4">
         <v>8888888803</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="U4">
         <v>800000000012347</v>
       </c>
       <c r="V4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="W4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X4">
         <v>1</v>
       </c>
       <c r="Y4" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Z4" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AA4" s="10">
         <v>3</v>
       </c>
       <c r="AB4" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>13</v>
@@ -1183,78 +1242,78 @@
         <v>16</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="L5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="N5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="P5">
         <v>122021</v>
       </c>
       <c r="Q5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R5">
         <v>8888888804</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="T5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="U5">
         <v>800000000012348</v>
       </c>
       <c r="V5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="X5">
         <v>1</v>
       </c>
       <c r="Y5" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Z5" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AA5" s="10">
         <v>4</v>
       </c>
       <c r="AB5" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>13</v>
@@ -1269,78 +1328,78 @@
         <v>16</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="L6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="N6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="P6">
         <v>122022</v>
       </c>
       <c r="Q6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R6">
         <v>8888888805</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="U6">
         <v>800000000012349</v>
       </c>
       <c r="V6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="W6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X6">
         <v>1</v>
       </c>
       <c r="Y6" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Z6" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AA6" s="10">
         <v>5</v>
       </c>
       <c r="AB6" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>13</v>
@@ -1355,78 +1414,78 @@
         <v>16</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="L7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="N7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="P7">
         <v>122023</v>
       </c>
       <c r="Q7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R7">
         <v>8888888806</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="T7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="U7">
         <v>800000000012350</v>
       </c>
       <c r="V7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="W7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X7">
         <v>1</v>
       </c>
       <c r="Y7" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Z7" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AA7" s="10">
         <v>6</v>
       </c>
       <c r="AB7" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>13</v>
@@ -1441,78 +1500,78 @@
         <v>16</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="L8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="N8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="P8">
         <v>122024</v>
       </c>
       <c r="Q8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R8">
         <v>8888888807</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="T8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="U8">
         <v>800000000012351</v>
       </c>
       <c r="V8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="X8">
         <v>1</v>
       </c>
       <c r="Y8" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Z8" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AA8" s="10">
         <v>1</v>
       </c>
       <c r="AB8" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>13</v>
@@ -1527,78 +1586,78 @@
         <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="L9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="N9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="P9">
         <v>122025</v>
       </c>
       <c r="Q9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R9">
         <v>8888888808</v>
       </c>
       <c r="S9" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="U9">
         <v>800000000012352</v>
       </c>
       <c r="V9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="W9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X9">
         <v>1</v>
       </c>
       <c r="Y9" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z9" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AA9" s="10">
         <v>2</v>
       </c>
       <c r="AB9" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>13</v>
@@ -1613,78 +1672,78 @@
         <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="L10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="N10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="P10">
         <v>122026</v>
       </c>
       <c r="Q10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R10">
         <v>8888888809</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="T10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="U10">
         <v>800000000012353</v>
       </c>
       <c r="V10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="W10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="X10">
         <v>1</v>
       </c>
       <c r="Y10" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Z10" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AA10" s="10">
         <v>3</v>
       </c>
       <c r="AB10" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>13</v>
@@ -1699,78 +1758,78 @@
         <v>16</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="L11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M11" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="N11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="P11">
         <v>122027</v>
       </c>
       <c r="Q11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R11">
         <v>8888888810</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="U11">
         <v>800000000012354</v>
       </c>
       <c r="V11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X11">
         <v>2</v>
       </c>
       <c r="Y11" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Z11" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AA11" s="10">
         <v>4</v>
       </c>
       <c r="AB11" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>13</v>
@@ -1785,64 +1844,64 @@
         <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="L12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M12" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="N12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="P12">
         <v>122028</v>
       </c>
       <c r="Q12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R12">
         <v>8888888811</v>
       </c>
       <c r="S12" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="T12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="U12">
         <v>800000000012355</v>
       </c>
       <c r="V12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="W12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="X12">
         <v>1</v>
       </c>
       <c r="Y12" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Z12" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AA12" s="10">
         <v>2</v>
@@ -1851,10 +1910,10 @@
     </row>
     <row r="13" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>13</v>
@@ -1869,70 +1928,70 @@
         <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="L13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="N13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="P13">
         <v>122019</v>
       </c>
       <c r="Q13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R13">
         <v>8888888802</v>
       </c>
       <c r="S13" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="T13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="U13">
         <v>800000000012346</v>
       </c>
       <c r="V13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="X13">
         <v>1</v>
       </c>
       <c r="Y13" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Z13" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AA13" s="10">
         <v>2</v>
       </c>
       <c r="AB13" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1940,9 +1999,6 @@
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E13" xr:uid="{64E4E3EF-BEC1-47EC-BC91-808327F0B80D}">
       <formula1>"at,qlabs12345,merg123456"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G13" xr:uid="{7398D82A-DE1F-4192-8126-2BC49651D76C}">
-      <formula1>"Password@@12,Piyush@1234"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F13" xr:uid="{6F8C8845-1A48-4A1F-86C2-7841B060C354}">
       <formula1>"Piyush_ql,ankur_ql"</formula1>
@@ -1961,6 +2017,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S13" xr:uid="{EAEE78D6-245D-45F8-AEFE-F9A6129821C6}">
       <formula1>"Regular Voucher to be generated,Exchange Order to be generated"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G13" xr:uid="{6A537ACE-47C0-4D0F-94B2-5235C0A63888}">
+      <formula1>"Password@@12,Ankur@12345,9@6C6535C"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -1984,21 +2043,788 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A722867-97BE-4C3F-9DF3-A8E6677F4E4B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA1" s="3" t="s">
         <v>36</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2">
+        <v>122018</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2">
+        <v>8888888801</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2">
+        <v>800000000012345</v>
+      </c>
+      <c r="V2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA2" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2" xr:uid="{85382E1A-5DE5-468B-8DFA-A13CD32E308C}">
+      <formula1>"Regular Voucher to be generated,Exchange Order to be generated"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2" xr:uid="{D2888A69-6504-46FB-954A-02869A40C1EB}">
+      <formula1>"1,2,3,4,5,6"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2" xr:uid="{C914A7A2-CB22-40E1-A4FC-EEACAB7C6D06}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2" xr:uid="{0B088517-93FC-4125-931E-54C57A2DAF6C}">
+      <formula1>"7 Days,14 Days,21 Days,30 Days,45 Days,60 Days"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2" xr:uid="{889DACA4-6C06-4B72-963B-513F2935375A}">
+      <formula1>"INR-Indian Rupee,USD-U.S. Dollars"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{794CCB21-21BF-48D0-9303-17BB486A6BD9}">
+      <formula1>"Piyush_ql,ankur_ql"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{8D86C434-2078-42B9-B9EA-B5F21309E6C0}">
+      <formula1>"at,qlabs12345,merg123456"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{38776BB4-DCB2-4D9F-AAB0-B8A3C9651019}">
+      <formula1>"Password@@12,Ankur@12345,9@6C6535C,Ankur@123456"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{F378514D-3A6E-48A7-BD17-45D63F8A8EC6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8311CD-32D8-4F62-B21D-BDF62DAF1CBE}">
+  <dimension ref="A1:AB6"/>
+  <sheetViews>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="28" max="28" width="120.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2">
+        <v>122018</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2">
+        <v>8888888801</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2">
+        <v>800000000012345</v>
+      </c>
+      <c r="V2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA2" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3">
+        <v>122019</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3">
+        <v>8888888802</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="T3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U3">
+        <v>800000000012346</v>
+      </c>
+      <c r="V3" t="s">
+        <v>46</v>
+      </c>
+      <c r="W3" t="s">
+        <v>49</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA3" s="10">
+        <v>2</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4">
+        <v>122020</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4">
+        <v>8888888803</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" t="s">
+        <v>39</v>
+      </c>
+      <c r="U4">
+        <v>800000000012347</v>
+      </c>
+      <c r="V4" t="s">
+        <v>42</v>
+      </c>
+      <c r="W4" t="s">
+        <v>27</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA4" s="10">
+        <v>3</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5">
+        <v>122021</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5">
+        <v>8888888804</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="T5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U5">
+        <v>800000000012348</v>
+      </c>
+      <c r="V5" t="s">
+        <v>46</v>
+      </c>
+      <c r="W5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA5" s="10">
+        <v>4</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6">
+        <v>122022</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6">
+        <v>8888888805</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T6" t="s">
+        <v>47</v>
+      </c>
+      <c r="U6">
+        <v>800000000012349</v>
+      </c>
+      <c r="V6" t="s">
+        <v>48</v>
+      </c>
+      <c r="W6" t="s">
+        <v>27</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA6" s="10">
+        <v>5</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S6" xr:uid="{7024DE41-9E08-4239-97D1-4E99A2614C31}">
+      <formula1>"Regular Voucher to be generated,Exchange Order to be generated"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA6" xr:uid="{3B958D3B-D51C-4AD4-9EDB-4BEBF9270D63}">
+      <formula1>"1,2,3,4,5,6"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z6" xr:uid="{65272E17-6DAB-43AB-BAE4-72E4EB5F4201}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y6" xr:uid="{0543D207-8A30-475A-8FB0-5F74DB02FF0B}">
+      <formula1>"7 Days,14 Days,21 Days,30 Days,45 Days,60 Days"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W6" xr:uid="{3F0235FE-274E-4692-8118-719B2A05093F}">
+      <formula1>"INR-Indian Rupee,USD-U.S. Dollars"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6" xr:uid="{2E6E9FC2-4ECB-4383-8DAF-46C038069BD8}">
+      <formula1>"Piyush_ql,ankur_ql"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6" xr:uid="{B1F5B367-421D-489C-8D0B-770BE844219C}">
+      <formula1>"at,qlabs12345,merg123456"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G6" xr:uid="{F91CEB24-97DA-4230-AB09-B0F6D86596AA}">
+      <formula1>"Password@@12,Ankur@12345,9@6C6535C"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{B74FB089-A5EF-46FB-A253-E7ADADBFDB6D}"/>
+    <hyperlink ref="J3:J6" r:id="rId2" display="test110@quadlabs.com" xr:uid="{689643B0-0BEB-4F86-ACFC-0BA54E199A51}"/>
+    <hyperlink ref="J3" r:id="rId3" xr:uid="{9F4BC546-5670-44BD-BDDF-8FCDA29F5C9E}"/>
+    <hyperlink ref="J4" r:id="rId4" xr:uid="{936CE400-A7B8-45E9-97BC-CF42BDA98988}"/>
+    <hyperlink ref="J5" r:id="rId5" xr:uid="{A07A930E-97D3-4DFC-AC99-E7A66FF137D7}"/>
+    <hyperlink ref="J6" r:id="rId6" xr:uid="{46F39C26-BBF0-4DE1-9236-A2297EEA1061}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>